--- a/FSDAtestHPC/test-results/regressionLTSts_test.xlsx
+++ b/FSDAtestHPC/test-results/regressionLTSts_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
   <si>
     <t>FileName</t>
   </si>
@@ -99,6 +99,28 @@
   <si>
     <t>TestActivity</t>
   </si>
+  <si>
+    <t>rng('default')
+n=45;
+a=1;
+b=0.8;
+sig=1;
+seq=(1:n)';
+y=a+b*seq+sig*randn(n,1);
+% Add a level shift in the simulated series
+y(round(n/2):end)=y(round(n/2):end)+10;
+% model with a linear trend, non seasonal and level shift
+model=struct;
+model.trend=1;
+model.seasonal=0;
+% Potential level shift position is investigated in positions:
+% t=10, t=11, ..., t=T-10.
+model.lshift=10;
+out=LTSts(y,'model',model,'plots',1);
+% Using the notation of the paper RPRH: A=1, B=1, G=0 and $\delta_1&amp;gt;0$.
+str=strcat('A=1, B=0, G=0, $\delta_2=',num2str(out.posLS),'$');
+title(findobj(gcf,'-regexp','Tag','LTSts:ts'),str,'interpreter','latex');</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,14 +150,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,266 +184,266 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>52.651369000000003</v>
+        <v>59.280389999999997</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>3.1055139999999999</v>
+        <v>3.33616</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2.498523</v>
+        <v>2.7499950000000002</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>2.9578549999999999</v>
+        <v>3.2912560000000002</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>27.003585999999999</v>
+        <v>30.549849999999999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>8.9667600000000007</v>
+        <v>10.219537000000001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>1552.440308</v>
+        <v>1694.7168280000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>24.154226000000001</v>
+        <v>26.306616000000002</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10">
-        <v>81.806222000000005</v>
+        <v>94.193348</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>20</v>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11">
-        <v>73.783450000000002</v>
+        <v>83.572584000000006</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D12">
-        <v>81.399533000000005</v>
+        <v>91.872034999999997</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D13">
-        <v>99.859751000000003</v>
+        <v>110.927531</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>20</v>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
